--- a/biology/Médecine/Génération_Z/Génération_Z.xlsx
+++ b/biology/Médecine/Génération_Z/Génération_Z.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9ration_Z</t>
+          <t>Génération_Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La génération Z est la génération des personnes nées entre 1997[1],[2],[3],[4] et 2010[5],[6] (bien que les délimitations varient selon les définitions[7],[8],[9],[10]). Elle succède à la génération Y et précède la génération Alpha[11],[5],[12]. Elle est définie comme une génération née alors que les communications numériques étaient déjà bien installées dans la société[11].
+La génération Z est la génération des personnes nées entre 1997 et 2010, (bien que les délimitations varient selon les définitions). Elle succède à la génération Y et précède la génération Alpha. Elle est définie comme une génération née alors que les communications numériques étaient déjà bien installées dans la société.
 Cependant, il faut appréhender ces descriptions de « générations » avec prudence, car définir une homogénéité de perception, de pensée et de comportement entre différentes personnes sur le seul critère de la période de naissance peut être réducteur. En effet, cela éclipse d'autres caractéristiques sociologiques tels que la classe sociale, le genre, l'origine ethnico-raciale, etc.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9ration_Z</t>
+          <t>Génération_Z</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des dénominations de cette génération sont liées aux dénominations des générations précédentes. Ainsi, l'expression « génération Z » est utilisée pour avoir une suite logique dans l’alphabet après les générations X et Y. En outre, l'appellation « zoomer » est construite en analogie et contraste avec le terme « boomer » désignant les personnes nées du baby-boom. Enfin, elle est aussi appelée « nouvelle génération silencieuse », car elle ressemblerait, sous certains aspects, à cette génération du début du XXe siècle[11].
-Le Z ferait aussi référence à « zappeur »[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des dénominations de cette génération sont liées aux dénominations des générations précédentes. Ainsi, l'expression « génération Z » est utilisée pour avoir une suite logique dans l’alphabet après les générations X et Y. En outre, l'appellation « zoomer » est construite en analogie et contraste avec le terme « boomer » désignant les personnes nées du baby-boom. Enfin, elle est aussi appelée « nouvelle génération silencieuse », car elle ressemblerait, sous certains aspects, à cette génération du début du XXe siècle.
+Le Z ferait aussi référence à « zappeur ».
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9ration_Z</t>
+          <t>Génération_Z</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,21 +561,182 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Travail
-Les zoomers abordent le travail très différemment de leurs ainés : ils sont en général moins conformistes (ils considèrent que les conventions professionnelles sont arbitraires et n'ont pas à être respectées aveuglément), ils aspirent à une organisation plus horizontale du travail (les normes hiérarchiques n'ont souvent à leur yeux pas de justification intelligibles[13],[14]).
-Par ailleurs les zoomers valorisent leur épanouissement au travail, leur bien-être, la bonne entente avec leurs collègues et leur épanouissement personnel (bien plus que leurs aînés plus conformistes)[14].
-Selon Nicolas Sadirac, fondateur de l'école pour l'informatique et les nouvelles technologies (EPITECH) et ancien directeur général de l'école 42, la génération Z a « un rapport décomplexé à l'erreur ! Pour eux, c'est normal de se tromper : ils ne diabolisent pas l'échec comme les autres générations »[15].
-Didier Pitelet, fondateur de l'agence marketing Moons'Factory, décrit ces individus comme des utopistes peu dociles qui exigeront une nouvelle gestion entrepreneuriale. Selon Pitelet, leur énergie devra être canalisée à des fins positives, ce qui supposera de mettre en place des modèles de gestion structurants, éducatifs et psychologiques[16].
-Écologie
-Bien que les zoomers aient eu moins accès à la nature et l'environnement que les générations précédentes, ils sont plus sensibles au respect et la protection environnementale, et ressentent davantage l'éco-anxiété[17],[18]. Malgré cette inclination à l'écologie, les zoomers ont une attitude ambivalente : ils consomment des produits particulièrement polluants en grandes quantités tout en se préoccupant des détériorations environnementales et des conséquences du changement climatique[19].
-Santé mentale
-La popularité et l'usage intensif des outils numériques dans les années 2000 semble avoir eu des conséquences psychologiques importantes pour la génération Z. En effet, le trouble du jeu vidéo et ou d'internet[20] est défini par l'Organisation mondiale de la santé depuis 2018[21]. En Asie, les recherches à propos de l'addiction au numérique ont particulièrement augmenté depuis son apparition dans le DSM-5. L'utilisation intensive des jeux vidéo est défini comme une "addiction" par le gouvernement chinois qui a d'ailleurs mis en place un système de soin pour ce problème[21]. Les étudiants et les adolescents semblent être les personnes les plus à risque de développer une addiction numérique[21]. Il semble y avoir des comorbidités avec plusieurs autres troubles mentaux. La dépression, les troubles anxieux, l’anxiété sociale, la faible estime de soi sont tous des exemples de troubles psychologiques en lien avec une consommation problématique d'outils numériques[21].
-Enjeux sociétaux
-La génération zoomer est plus libérale en matière de mœurs que leurs aînés, cela prend racine notamment dans leur conformisme moindre[14].
-Relations et interactions sociales
-La génération Z représente, d’après un rapport publié par le Pew Research Center[3], les personnes qui ont toujours connu un monde avec une forte présence de l'informatique et d'Internet. Comparée aux générations précédentes, la génération Z se définirait par ses relations au travers de plateformes virtuelles plutôt que par ses relations réelles[22].
+          <t>Travail</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les zoomers abordent le travail très différemment de leurs ainés : ils sont en général moins conformistes (ils considèrent que les conventions professionnelles sont arbitraires et n'ont pas à être respectées aveuglément), ils aspirent à une organisation plus horizontale du travail (les normes hiérarchiques n'ont souvent à leur yeux pas de justification intelligibles,).
+Par ailleurs les zoomers valorisent leur épanouissement au travail, leur bien-être, la bonne entente avec leurs collègues et leur épanouissement personnel (bien plus que leurs aînés plus conformistes).
+Selon Nicolas Sadirac, fondateur de l'école pour l'informatique et les nouvelles technologies (EPITECH) et ancien directeur général de l'école 42, la génération Z a « un rapport décomplexé à l'erreur ! Pour eux, c'est normal de se tromper : ils ne diabolisent pas l'échec comme les autres générations ».
+Didier Pitelet, fondateur de l'agence marketing Moons'Factory, décrit ces individus comme des utopistes peu dociles qui exigeront une nouvelle gestion entrepreneuriale. Selon Pitelet, leur énergie devra être canalisée à des fins positives, ce qui supposera de mettre en place des modèles de gestion structurants, éducatifs et psychologiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Génération_Z</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9n%C3%A9ration_Z</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les zoomers face au monde</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Travail</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que les zoomers aient eu moins accès à la nature et l'environnement que les générations précédentes, ils sont plus sensibles au respect et la protection environnementale, et ressentent davantage l'éco-anxiété,. Malgré cette inclination à l'écologie, les zoomers ont une attitude ambivalente : ils consomment des produits particulièrement polluants en grandes quantités tout en se préoccupant des détériorations environnementales et des conséquences du changement climatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Génération_Z</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9n%C3%A9ration_Z</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les zoomers face au monde</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Travail</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Santé mentale</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La popularité et l'usage intensif des outils numériques dans les années 2000 semble avoir eu des conséquences psychologiques importantes pour la génération Z. En effet, le trouble du jeu vidéo et ou d'internet est défini par l'Organisation mondiale de la santé depuis 2018. En Asie, les recherches à propos de l'addiction au numérique ont particulièrement augmenté depuis son apparition dans le DSM-5. L'utilisation intensive des jeux vidéo est défini comme une "addiction" par le gouvernement chinois qui a d'ailleurs mis en place un système de soin pour ce problème. Les étudiants et les adolescents semblent être les personnes les plus à risque de développer une addiction numérique. Il semble y avoir des comorbidités avec plusieurs autres troubles mentaux. La dépression, les troubles anxieux, l’anxiété sociale, la faible estime de soi sont tous des exemples de troubles psychologiques en lien avec une consommation problématique d'outils numériques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Génération_Z</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9n%C3%A9ration_Z</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les zoomers face au monde</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Travail</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Enjeux sociétaux</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La génération zoomer est plus libérale en matière de mœurs que leurs aînés, cela prend racine notamment dans leur conformisme moindre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Génération_Z</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9n%C3%A9ration_Z</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les zoomers face au monde</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Travail</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Relations et interactions sociales</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La génération Z représente, d’après un rapport publié par le Pew Research Center, les personnes qui ont toujours connu un monde avec une forte présence de l'informatique et d'Internet. Comparée aux générations précédentes, la génération Z se définirait par ses relations au travers de plateformes virtuelles plutôt que par ses relations réelles.
 Loisirs et divertissements
-L'utilisation des appareils numériques (cellulaires, consoles de jeux, ordinateurs) est en constante évolution depuis le début des années 2000[23]. Les jeux en ligne sont notamment les plus populaires auprès des jeunes et des adolescents de la génération Z, où certains aspirent à devenir joueur professionnel de jeux vidéo. Ce phénomène semble avoir pris une ampleur considérable au sein de cette génération [24].
+L'utilisation des appareils numériques (cellulaires, consoles de jeux, ordinateurs) est en constante évolution depuis le début des années 2000. Les jeux en ligne sont notamment les plus populaires auprès des jeunes et des adolescents de la génération Z, où certains aspirent à devenir joueur professionnel de jeux vidéo. Ce phénomène semble avoir pris une ampleur considérable au sein de cette génération .
 </t>
         </is>
       </c>
